--- a/biology/Botanique/Clavariaceae/Clavariaceae.xlsx
+++ b/biology/Botanique/Clavariaceae/Clavariaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Clavariaceae forment une famille de champignons basidiomycètes de l'ordre des Agaricales. Elle est constituée actuellement de sept genres qui présentent tous des formes clavaroïdes, mais que l'on différencie principalement par leur forme : ils peuvent être verticaux, ramifiés, arborescents, résupinés, suspendus ou minuscules. 
 </t>
@@ -511,26 +523,239 @@
           <t>Liste des sept genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>D'après la 10e édition du Dictionary of the Fungi[1] (2008), cette famille est constituée de 7 genres :
-Clavaria
-Les clavaires sont décrites par Linné dès 1753[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après la 10e édition du Dictionary of the Fungi (2008), cette famille est constituée de 7 genres :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Clavariaceae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clavariaceae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des sept genres</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Clavaria</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les clavaires sont décrites par Linné dès 1753.
 Bien connues par leurs formes coralloïdes, elles contiennent plusieurs centaines d'espèces.
-Clavulinopsis
-Le genre Clavulinopsis[3] présente une trentaine d'espèces, fort proches des clavaires par la forme.
-Hyphodontiella
-Deux espèces[4], forme résupinée, blanche, minuscule, décrites en Scandinavie sur les souches d'aulne et de saule. (Salix, Dilleniidae, Alnus, Hamamelididae)
-Hyphodontiella hauerslevii (K.H. Larss. &amp; Hjortstam 1995[5]) vit sur Athyrium filix-femina, Suède
-Hyphodontiella multiseptata Å. (Strid 1975[6]) branche d'Alnus incana : Norvège, Suède
-Mucronella
-Une vingtaine d'espèces[7]. Forme clavaroïde pendue, en forme de larme.
-L'espèce type avait été initialement nommée Hydnum calvum dans le cadre d'une collaboration entre le botaniste allemand Johannes Baptista von Albertini et l'Américain Lewis David de Schweinitz en 1805[8]; le mycologue suédois Elias Magnus Fries l'a transférée par après dans le genre Mucronella nouvellement décrit en 1874[9].
-Taxonomie
-Exemple
-Mucronella calva
-Ramariopsis
-Le genre Ramariopsis présente des formes clavaroïdes arborescentes[10]. Liste d'espèces :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Clavariaceae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clavariaceae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des sept genres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Clavulinopsis</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Clavulinopsis présente une trentaine d'espèces, fort proches des clavaires par la forme.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Clavariaceae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clavariaceae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des sept genres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Hyphodontiella</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Deux espèces, forme résupinée, blanche, minuscule, décrites en Scandinavie sur les souches d'aulne et de saule. (Salix, Dilleniidae, Alnus, Hamamelididae)
+Hyphodontiella hauerslevii (K.H. Larss. &amp; Hjortstam 1995) vit sur Athyrium filix-femina, Suède
+Hyphodontiella multiseptata Å. (Strid 1975) branche d'Alnus incana : Norvège, Suède</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Clavariaceae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clavariaceae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des sept genres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Mucronella</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une vingtaine d'espèces. Forme clavaroïde pendue, en forme de larme.
+L'espèce type avait été initialement nommée Hydnum calvum dans le cadre d'une collaboration entre le botaniste allemand Johannes Baptista von Albertini et l'Américain Lewis David de Schweinitz en 1805; le mycologue suédois Elias Magnus Fries l'a transférée par après dans le genre Mucronella nouvellement décrit en 1874.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Clavariaceae</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clavariaceae</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste des sept genres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mucronella</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Exemple</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Mucronella calva</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Clavariaceae</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clavariaceae</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste des sept genres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Ramariopsis</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Le genre Ramariopsis présente des formes clavaroïdes arborescentes. Liste d'espèces :
 Ramariopsis agglutinata
 Ramariopsis alutacea
 Ramariopsis asperulospora
@@ -566,27 +791,172 @@
 Ramariopsis tenuicula
 Ramariopsis tenuiramosa
 Ramariopsis tortuosa
-Ramariopsis vestitipes
-Scytinopogon
-Le genre Scytinopogon est décrit par le mycologue Rolf Singer en 1945[11]. Il comporte quatre espèces Europe[12]. Il présente des formes clavaroïdes arborescentes à ramifications complexes. 
-Espèces européennes
-Scytinopogon angulisporus ((Pat. 1888[13]) Corner 1950[14]) (Europe, Floride, Nouvelle-Zélande, Brésil)
+Ramariopsis vestitipes</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Clavariaceae</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clavariaceae</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste des sept genres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Scytinopogon</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Scytinopogon est décrit par le mycologue Rolf Singer en 1945. Il comporte quatre espèces Europe. Il présente des formes clavaroïdes arborescentes à ramifications complexes. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Clavariaceae</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clavariaceae</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Liste des sept genres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Scytinopogon</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Espèces européennes</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Scytinopogon angulisporus ((Pat. 1888) Corner 1950) (Europe, Floride, Nouvelle-Zélande, Brésil)
 var. angulisporus (Pat.) Corner 1950
 var. curtus Corner 1950
 var. gracilis Corner 1950
 var. parvus Corner 1950
 Scytinopogon echinosporus (Berk. &amp; Broome) Corner 1950
 Scytinopogon pallescens (Bres.) Singer 1945
-Scytinopogon scaber (Berk. &amp; M.A. Curtis) D.A. Reid 1962
-Autres
-Scytinopogon chartaceum (Pat.) R.H. Petersen 1988
+Scytinopogon scaber (Berk. &amp; M.A. Curtis) D.A. Reid 1962</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Clavariaceae</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clavariaceae</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Liste des sept genres</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Scytinopogon</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Scytinopogon chartaceum (Pat.) R.H. Petersen 1988
 Scytinopogon dealbatus (Berk.) Corner 1970
-Scytinopogon papillosus (Corner 1970[15]) Bolivie
+Scytinopogon papillosus (Corner 1970) Bolivie
 Scytinopogon parvus (Corner) Douanla-Meli 2007
-Scytinopogon robustus (Rick) Corner 1970
-Setigeroclavula
-Proposé comme nouveau genre par RH Pétersen en 1988, c'est une espèce endémique en Nouvelle-Zélande, ressemblant à un très petit clavaire de 3 mm de haut pour 1 mm de large, il se développe sur les rachis d'Asplenium bulbiferum, une fougère de Nouvelle-Zélande.
-Setigeroclavula ascendens (R.H. Petersen 1988[16]),</t>
+Scytinopogon robustus (Rick) Corner 1970</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Clavariaceae</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clavariaceae</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Liste des sept genres</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Setigeroclavula</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Proposé comme nouveau genre par RH Pétersen en 1988, c'est une espèce endémique en Nouvelle-Zélande, ressemblant à un très petit clavaire de 3 mm de haut pour 1 mm de large, il se développe sur les rachis d'Asplenium bulbiferum, une fougère de Nouvelle-Zélande.
+Setigeroclavula ascendens (R.H. Petersen 1988),</t>
         </is>
       </c>
     </row>
